--- a/Excel-XLSX/UN-SWA.xlsx
+++ b/Excel-XLSX/UN-SWA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="641">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>oKAY71</t>
+    <t>Qjm681</t>
   </si>
   <si>
     <t>1970</t>
@@ -1875,7 +1875,7 @@
     <t>441</t>
   </si>
   <si>
-    <t>554</t>
+    <t>569</t>
   </si>
   <si>
     <t>442</t>
@@ -1884,25 +1884,40 @@
     <t>443</t>
   </si>
   <si>
+    <t>505</t>
+  </si>
+  <si>
+    <t>444</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>MLW</t>
+  </si>
+  <si>
+    <t>MWI</t>
+  </si>
+  <si>
+    <t>445</t>
+  </si>
+  <si>
+    <t>446</t>
+  </si>
+  <si>
+    <t>447</t>
+  </si>
+  <si>
+    <t>448</t>
+  </si>
+  <si>
+    <t>733</t>
+  </si>
+  <si>
     <t>449</t>
   </si>
   <si>
-    <t>444</t>
-  </si>
-  <si>
-    <t>445</t>
-  </si>
-  <si>
-    <t>446</t>
-  </si>
-  <si>
-    <t>646</t>
-  </si>
-  <si>
-    <t>447</t>
-  </si>
-  <si>
-    <t>448</t>
+    <t>450</t>
   </si>
   <si>
     <t>Syrian Arab Rep.</t>
@@ -1911,10 +1926,19 @@
     <t>SYR</t>
   </si>
   <si>
-    <t>450</t>
-  </si>
-  <si>
     <t>451</t>
+  </si>
+  <si>
+    <t>452</t>
+  </si>
+  <si>
+    <t>453</t>
+  </si>
+  <si>
+    <t>786</t>
+  </si>
+  <si>
+    <t>454</t>
   </si>
 </sst>
 </file>
@@ -2299,7 +2323,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V452"/>
+  <dimension ref="A1:V455"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -32132,10 +32156,10 @@
         <v>32</v>
       </c>
       <c r="N439" s="2" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="O439" s="2" t="s">
-        <v>273</v>
+        <v>377</v>
       </c>
       <c r="P439" s="2" t="s">
         <v>34</v>
@@ -32203,7 +32227,7 @@
         <v>47</v>
       </c>
       <c r="O440" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P440" s="2" t="s">
         <v>34</v>
@@ -32271,7 +32295,7 @@
         <v>78</v>
       </c>
       <c r="O441" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="P441" s="2" t="s">
         <v>34</v>
@@ -32339,7 +32363,7 @@
         <v>619</v>
       </c>
       <c r="O442" s="2" t="s">
-        <v>557</v>
+        <v>620</v>
       </c>
       <c r="P442" s="2" t="s">
         <v>62</v>
@@ -32407,7 +32431,7 @@
         <v>47</v>
       </c>
       <c r="O443" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="P443" s="2" t="s">
         <v>34</v>
@@ -32516,16 +32540,16 @@
         <v>611</v>
       </c>
       <c r="F445" s="2" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="G445" s="1" t="s">
-        <v>254</v>
+        <v>624</v>
       </c>
       <c r="H445" s="1" t="s">
-        <v>255</v>
+        <v>625</v>
       </c>
       <c r="I445" s="1" t="s">
-        <v>256</v>
+        <v>626</v>
       </c>
       <c r="J445" s="2" t="s">
         <v>29</v>
@@ -32543,7 +32567,7 @@
         <v>34</v>
       </c>
       <c r="O445" s="2" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="P445" s="2" t="s">
         <v>34</v>
@@ -32578,22 +32602,22 @@
         <v>22</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="E446" s="2" t="s">
         <v>611</v>
       </c>
       <c r="F446" s="2" t="s">
-        <v>169</v>
+        <v>64</v>
       </c>
       <c r="G446" s="1" t="s">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="H446" s="1" t="s">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c r="I446" s="1" t="s">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c r="J446" s="2" t="s">
         <v>29</v>
@@ -32608,10 +32632,10 @@
         <v>32</v>
       </c>
       <c r="N446" s="2" t="s">
-        <v>352</v>
+        <v>34</v>
       </c>
       <c r="O446" s="2" t="s">
-        <v>239</v>
+        <v>90</v>
       </c>
       <c r="P446" s="2" t="s">
         <v>34</v>
@@ -32646,22 +32670,22 @@
         <v>22</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="E447" s="2" t="s">
         <v>611</v>
       </c>
       <c r="F447" s="2" t="s">
-        <v>173</v>
+        <v>253</v>
       </c>
       <c r="G447" s="1" t="s">
-        <v>174</v>
+        <v>254</v>
       </c>
       <c r="H447" s="1" t="s">
-        <v>175</v>
+        <v>255</v>
       </c>
       <c r="I447" s="1" t="s">
-        <v>175</v>
+        <v>256</v>
       </c>
       <c r="J447" s="2" t="s">
         <v>29</v>
@@ -32676,10 +32700,10 @@
         <v>32</v>
       </c>
       <c r="N447" s="2" t="s">
-        <v>348</v>
+        <v>34</v>
       </c>
       <c r="O447" s="2" t="s">
-        <v>626</v>
+        <v>78</v>
       </c>
       <c r="P447" s="2" t="s">
         <v>34</v>
@@ -32714,22 +32738,22 @@
         <v>22</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E448" s="2" t="s">
         <v>611</v>
       </c>
       <c r="F448" s="2" t="s">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="G448" s="1" t="s">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="H448" s="1" t="s">
-        <v>31</v>
+        <v>171</v>
       </c>
       <c r="I448" s="1" t="s">
-        <v>32</v>
+        <v>171</v>
       </c>
       <c r="J448" s="2" t="s">
         <v>29</v>
@@ -32744,10 +32768,10 @@
         <v>32</v>
       </c>
       <c r="N448" s="2" t="s">
-        <v>34</v>
+        <v>349</v>
       </c>
       <c r="O448" s="2" t="s">
-        <v>34</v>
+        <v>169</v>
       </c>
       <c r="P448" s="2" t="s">
         <v>34</v>
@@ -32762,7 +32786,7 @@
         <v>34</v>
       </c>
       <c r="T448" s="2" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="U448" s="1" t="s">
         <v>35</v>
@@ -32782,22 +32806,22 @@
         <v>22</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E449" s="2" t="s">
         <v>611</v>
       </c>
       <c r="F449" s="2" t="s">
-        <v>328</v>
+        <v>173</v>
       </c>
       <c r="G449" s="1" t="s">
-        <v>629</v>
+        <v>174</v>
       </c>
       <c r="H449" s="1" t="s">
-        <v>630</v>
+        <v>175</v>
       </c>
       <c r="I449" s="1" t="s">
-        <v>630</v>
+        <v>175</v>
       </c>
       <c r="J449" s="2" t="s">
         <v>29</v>
@@ -32812,10 +32836,10 @@
         <v>32</v>
       </c>
       <c r="N449" s="2" t="s">
-        <v>34</v>
+        <v>359</v>
       </c>
       <c r="O449" s="2" t="s">
-        <v>47</v>
+        <v>631</v>
       </c>
       <c r="P449" s="2" t="s">
         <v>34</v>
@@ -32850,22 +32874,22 @@
         <v>22</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="E450" s="2" t="s">
         <v>611</v>
       </c>
       <c r="F450" s="2" t="s">
-        <v>329</v>
+        <v>29</v>
       </c>
       <c r="G450" s="1" t="s">
-        <v>537</v>
+        <v>30</v>
       </c>
       <c r="H450" s="1" t="s">
-        <v>538</v>
+        <v>31</v>
       </c>
       <c r="I450" s="1" t="s">
-        <v>539</v>
+        <v>32</v>
       </c>
       <c r="J450" s="2" t="s">
         <v>29</v>
@@ -32883,7 +32907,7 @@
         <v>34</v>
       </c>
       <c r="O450" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="P450" s="2" t="s">
         <v>34</v>
@@ -32898,7 +32922,7 @@
         <v>34</v>
       </c>
       <c r="T450" s="2" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="U450" s="1" t="s">
         <v>35</v>
@@ -32918,22 +32942,22 @@
         <v>22</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E451" s="2" t="s">
         <v>611</v>
       </c>
       <c r="F451" s="2" t="s">
-        <v>177</v>
+        <v>328</v>
       </c>
       <c r="G451" s="1" t="s">
-        <v>178</v>
+        <v>634</v>
       </c>
       <c r="H451" s="1" t="s">
-        <v>179</v>
+        <v>635</v>
       </c>
       <c r="I451" s="1" t="s">
-        <v>179</v>
+        <v>635</v>
       </c>
       <c r="J451" s="2" t="s">
         <v>29</v>
@@ -32948,10 +32972,10 @@
         <v>32</v>
       </c>
       <c r="N451" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="O451" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P451" s="2" t="s">
         <v>34</v>
@@ -32986,22 +33010,22 @@
         <v>22</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="E452" s="2" t="s">
         <v>611</v>
       </c>
       <c r="F452" s="2" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="G452" s="1" t="s">
-        <v>389</v>
+        <v>537</v>
       </c>
       <c r="H452" s="1" t="s">
-        <v>390</v>
+        <v>538</v>
       </c>
       <c r="I452" s="1" t="s">
-        <v>391</v>
+        <v>539</v>
       </c>
       <c r="J452" s="2" t="s">
         <v>29</v>
@@ -33016,7 +33040,7 @@
         <v>32</v>
       </c>
       <c r="N452" s="2" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="O452" s="2" t="s">
         <v>47</v>
@@ -33040,6 +33064,210 @@
         <v>35</v>
       </c>
       <c r="V452" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D453" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="E453" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="F453" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G453" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H453" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I453" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J453" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K453" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L453" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M453" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N453" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O453" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P453" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q453" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R453" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S453" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T453" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U453" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V453" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C454" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D454" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="E454" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="F454" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G454" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H454" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I454" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J454" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K454" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L454" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M454" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N454" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O454" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="P454" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q454" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R454" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S454" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T454" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U454" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V454" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C455" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D455" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="E455" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="F455" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="G455" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H455" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I455" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="J455" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K455" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L455" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M455" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N455" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O455" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P455" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q455" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R455" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S455" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T455" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U455" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V455" s="2" t="s">
         <v>34</v>
       </c>
     </row>
